--- a/medicine/Enfance/Matt_Haig/Matt_Haig.xlsx
+++ b/medicine/Enfance/Matt_Haig/Matt_Haig.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Matt Haig, né le 3 juillet 1975 à Sheffield[1],[2],[3], est un romancier et journaliste britannique.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Matt Haig, né le 3 juillet 1975 à Sheffield est un romancier et journaliste britannique.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Matt Haig grandit à Newark-on-Trent dans les Midlands-de-l'Est en Angleterre. Il fait des études de lettres et d'histoire à l'université de Hull, puis obtient un diplôme de master à l'université de Leeds[4],. Rester en vie, son œuvre autobiographique, fut numéro un sur la liste du Sunday Times et a été publié dans 24 pays[5]. Benedict Cumberbatch jouera le rôle principal dans l'adaptation filmographique par Studiocanal de How to Stop Time, l'histoire d'un homme qui paraît avoir 40 ans alors qu'il en a 400[6]. Studiocanal adaptera également Un garçon nommé Noël, la « véritable histoire » du Père Noël[7]. En 2017, il reçut le titre de docteur honoris causa en lettres par l'université de Kingston[8]. Haig demeure actuellement à Brighton avec sa compagne Andrea Semple et leurs deux enfants[9],[10].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Matt Haig grandit à Newark-on-Trent dans les Midlands-de-l'Est en Angleterre. Il fait des études de lettres et d'histoire à l'université de Hull, puis obtient un diplôme de master à l'université de Leeds,. Rester en vie, son œuvre autobiographique, fut numéro un sur la liste du Sunday Times et a été publié dans 24 pays. Benedict Cumberbatch jouera le rôle principal dans l'adaptation filmographique par Studiocanal de How to Stop Time, l'histoire d'un homme qui paraît avoir 40 ans alors qu'il en a 400. Studiocanal adaptera également Un garçon nommé Noël, la « véritable histoire » du Père Noël. En 2017, il reçut le titre de docteur honoris causa en lettres par l'université de Kingston. Haig demeure actuellement à Brighton avec sa compagne Andrea Semple et leurs deux enfants,.
 </t>
         </is>
       </c>
@@ -544,73 +558,182 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Non-Fictions
-(en) How Come You Don't Have An E-Strategy[11],[12], Kogan Page (en), 2002
-(en) Brand Failures[13], Kogan Page (en), 2003
-(en) Brand Royalty[14], Kogan Page (en), 2004
-(en) Brand Success[15], Kogan Page (en), 2011
-Rester en vie[16],[17], Philippe Rey, 2016 ((en) Reasons to Stay Alive[18], Canongate Books (en), 2015)
-Débranchez-vous ! Comment trouver la paix dans un monde survolté, Philippe Rey, 2018 ((en) Notes on a Nervous Planet, Canongate Books (en), 2018)
-Fictions
-(en) The Last Family in England[19], Jonathan Cape, 2004
-(en) The Dead Fathers Club[20], Jonathan Cape, 2006
-(en) The Possession of Mr Cave[21], Jonathan Cape, 2008
-Les Radley[22], Albin Michel, 2010 ((en) The Radleys[23], Free Press (en), 2010)
-Humains, Hélium, 2014 ((en) The Humans[24], Canongate Books (en), 2013)
-How To Stop Time, Hélium, 2019 ((en) How to Stop Time[25], Canongate Books (en), 2017)
-La Bibliothèque de Minuit, Mazarine, 2022 ((en) The Midnight Library, Canongate Books (en), 2020)
-Livres pour enfants
-La Forêt interdite (en)[26], Bayard Jeunesse, 2010 ((en) Shadow Forest[27], Corgi Children's, 2007)
-(en) Runaway Troll[28], G. P. Putnam's Sons, 2008
-(en) To Be a Cat[29], The Bodley Head, 2012
-(en) Echo Boy[30], Bodley Head Children's Books, 2014
-Un garçon nommé Noël[31], Hélium, 2016 ((en) A Boy Called Christmas[32], Canongate Books (en), 2015)
-La Fille qui a sauvé Noël[33], Hélium, 2017 ((en) The Girl Who Saved Christmas[34], Canongate Books (en), 2016)
-Le Père Noël et moi, Hélium, 2018 ((en) Father Christmas and Me[35], Canongate Books (en), 2017)
+          <t>Non-Fictions</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(en) How Come You Don't Have An E-Strategy Kogan Page (en), 2002
+(en) Brand Failures, Kogan Page (en), 2003
+(en) Brand Royalty, Kogan Page (en), 2004
+(en) Brand Success, Kogan Page (en), 2011
+Rester en vie Philippe Rey, 2016 ((en) Reasons to Stay Alive, Canongate Books (en), 2015)
+Débranchez-vous ! Comment trouver la paix dans un monde survolté, Philippe Rey, 2018 ((en) Notes on a Nervous Planet, Canongate Books (en), 2018)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Matt_Haig</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Matt_Haig</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fictions</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(en) The Last Family in England, Jonathan Cape, 2004
+(en) The Dead Fathers Club, Jonathan Cape, 2006
+(en) The Possession of Mr Cave, Jonathan Cape, 2008
+Les Radley, Albin Michel, 2010 ((en) The Radleys, Free Press (en), 2010)
+Humains, Hélium, 2014 ((en) The Humans, Canongate Books (en), 2013)
+How To Stop Time, Hélium, 2019 ((en) How to Stop Time, Canongate Books (en), 2017)
+La Bibliothèque de Minuit, Mazarine, 2022 ((en) The Midnight Library, Canongate Books (en), 2020)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Matt_Haig</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Matt_Haig</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Livres pour enfants</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La Forêt interdite (en), Bayard Jeunesse, 2010 ((en) Shadow Forest, Corgi Children's, 2007)
+(en) Runaway Troll, G. P. Putnam's Sons, 2008
+(en) To Be a Cat, The Bodley Head, 2012
+(en) Echo Boy, Bodley Head Children's Books, 2014
+Un garçon nommé Noël, Hélium, 2016 ((en) A Boy Called Christmas, Canongate Books (en), 2015)
+La Fille qui a sauvé Noël, Hélium, 2017 ((en) The Girl Who Saved Christmas, Canongate Books (en), 2016)
+Le Père Noël et moi, Hélium, 2018 ((en) Father Christmas and Me, Canongate Books (en), 2017)
 (en) The Truth Pixi, Canongate Books (en), 2018
 (en) Evie and the Animals, Canongate Books (en), 2019
 (en) The Truth Pixie Goes to School, Canongate Books (en), 2019
 (en) Evie In The Jungle, Canongate Books (en), 2020
-Une souris nommée Miika, Actes Sud, 2021 ((en) A Mouse Called Miika, 2021)
-Contributions
-(en) The Internet Job Search Handbook[36], How To Books Ltd, 2001
-(en) The Complete Grimm's Fairy Tales[37], Puffin Classics (en), 2011
-(en) 40[38], Canongate Books (en), 2013
+Une souris nommée Miika, Actes Sud, 2021 ((en) A Mouse Called Miika, 2021)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Matt_Haig</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Matt_Haig</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Contributions</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(en) The Internet Job Search Handbook, How To Books Ltd, 2001
+(en) The Complete Grimm's Fairy Tales, Puffin Classics (en), 2011
+(en) 40, Canongate Books (en), 2013
 (en) Haunted, Andersen Press (en), 2013
-(en) Humans: an A-Z[39], Canongate Books (en), 2014
-(en) Love Hurts[40], Corgi Children's, 2015
-(en) Here I Stand[41], Walker Books (en), 2016
-(en) The Anniversary[42], Orion Books, 2016</t>
+(en) Humans: an A-Z, Canongate Books (en), 2014
+(en) Love Hurts, Corgi Children's, 2015
+(en) Here I Stand, Walker Books (en), 2016
+(en) The Anniversary, Orion Books, 2016</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Matt_Haig</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Matt_Haig</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Prix et distinctions[43]</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2009 : lauréat du Blue Peter Book of the Year Award[44]
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2009 : lauréat du Blue Peter Book of the Year Award
 2009 : Calderdale Children's Book of the Year Award
 2009 : East Sussex Children's Book Award
 2009 : Lancashire Schools Library Fantastic Book Award
@@ -622,7 +745,7 @@
 2008 : Warrington Winner of Winners Book Award
 2008 : Waterstone's Children's Book Prize
 2007 : Sefton Super Reads
-2007 : Gold Smarties Award[45]</t>
+2007 : Gold Smarties Award</t>
         </is>
       </c>
     </row>
